--- a/biology/Zoologie/Crocopoda/Crocopoda.xlsx
+++ b/biology/Zoologie/Crocopoda/Crocopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Crocopoda (crocopodes en français) forment un clade d'archosauromorphes herbivores, qui renferme principalement les clades des Allokotosauria[2], des Rhynchosauria, des Prolacertidae et des Archosauriformes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Crocopoda (crocopodes en français) forment un clade d'archosauromorphes herbivores, qui renferme principalement les clades des Allokotosauria, des Rhynchosauria, des Prolacertidae et des Archosauriformes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du clade des Crocopoda combine le mot latin « crocodilus », « crocodile », et le mot du grec ancien « pous », « pied », pour donner « pied de crocodile »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du clade des Crocopoda combine le mot latin « crocodilus », « crocodile », et le mot du grec ancien « pous », « pied », pour donner « pied de crocodile ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les Crocopoda contiennent tous les taxons plus proches d'Azendohsaurus madagaskarensis Flynn et al., 2010, de Trilophosaurus buettneri Case, 1928, de Rhynchosaurus articeps Owen, 1842 et de Proterosuchus fergusi Broom, 1903a, que de Protorosaurus speneri Meyer, 1830 ou Tanystropheus longobardicus Bassani, 1886 »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les Crocopoda contiennent tous les taxons plus proches d'Azendohsaurus madagaskarensis Flynn et al., 2010, de Trilophosaurus buettneri Case, 1928, de Rhynchosaurus articeps Owen, 1842 et de Proterosuchus fergusi Broom, 1903a, que de Protorosaurus speneri Meyer, 1830 ou Tanystropheus longobardicus Bassani, 1886 ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition stratigraphique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont vécu du Permien supérieur (Wuchiapingien) il y a environ 260 Ma (millions d'années) avec l'espèce Eorasaurus olsoni[3], jusqu'à l'Actuel avec le moineau domestique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont vécu du Permien supérieur (Wuchiapingien) il y a environ 260 Ma (millions d'années) avec l'espèce Eorasaurus olsoni, jusqu'à l'Actuel avec le moineau domestique.
 </t>
         </is>
       </c>
@@ -606,8 +624,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cladogramme
-Le cladogramme suivant des archosauriformes a été établi par Martin D. Ezcurra en 2016[1]. Il montre la position du clade des Crocopoda parmi les archosauromorphes, ainsi que les principaux taxons qu'il renferme :
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant des archosauriformes a été établi par Martin D. Ezcurra en 2016. Il montre la position du clade des Crocopoda parmi les archosauromorphes, ainsi que les principaux taxons qu'il renferme :
 </t>
         </is>
       </c>
